--- a/excels/graph.xlsx
+++ b/excels/graph.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="20400" windowHeight="8265"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="20400" windowHeight="8265" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="time" sheetId="1" r:id="rId1"/>
@@ -599,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1807,8 +1807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
